--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.060611083</v>
+        <v>0.05921016699999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.884060625</v>
+        <v>5.972509415999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>61.244871375</v>
+        <v>61.73076775000001</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -412,7 +412,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.057912333</v>
+        <v>0.058083625</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -412,7 +412,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.058083625</v>
+        <v>0.05821841700000001</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.05921016699999999</v>
+        <v>0.058962667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.972509415999999</v>
+        <v>5.968093167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>61.73076775000001</v>
+        <v>61.12055950000001</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.058410542</v>
+        <v>0.058907459</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.871926083</v>
+        <v>5.8328465</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>60.708651125</v>
+        <v>60.266333625</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.058962667</v>
+        <v>0.058410542</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.968093167</v>
+        <v>5.871926083</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>61.12055950000001</v>
+        <v>60.708651125</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -412,7 +412,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.05821841700000001</v>
+        <v>0.058323917</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.058907459</v>
+        <v>0.058197083</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.8328465</v>
+        <v>5.926854459</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>60.266333625</v>
+        <v>60.390411125</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.058197083</v>
+        <v>0.057706333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.926854459</v>
+        <v>5.915952750000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>60.390411125</v>
+        <v>61.65121875000001</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.057706333</v>
+        <v>0.05805004100000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,7 +435,7 @@
         <v>414</v>
       </c>
       <c r="F3">
-        <v>5.915952750000001</v>
+        <v>5.944643834000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,7 +455,7 @@
         <v>1466</v>
       </c>
       <c r="F4">
-        <v>61.65121875000001</v>
+        <v>60.83730875</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>No solution.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,53 +406,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.05805004100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>414</v>
-      </c>
-      <c r="F3">
-        <v>5.944643834000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1466</v>
-      </c>
-      <c r="F4">
-        <v>60.83730875</v>
+        <v>0.057912333</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>No solution.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,53 +406,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0.05805004100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>414</v>
-      </c>
-      <c r="F3">
-        <v>5.944643834000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1466</v>
-      </c>
-      <c r="F4">
-        <v>60.83730875</v>
+        <v>152.9034914</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>Execution time (seconds)</t>
-  </si>
-  <si>
-    <t>UCS</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>No solution.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,66 +389,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>0.05805004100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>414</v>
-      </c>
-      <c r="F3">
-        <v>5.944643834000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1466</v>
-      </c>
-      <c r="F4">
-        <v>60.83730875</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -406,13 +406,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>152.9034914</v>
+        <v>0.04305529999999991</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Execution time (seconds)</t>
+  </si>
+  <si>
+    <t>UCS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No solution.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +398,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>414</v>
+      </c>
+      <c r="F2">
+        <v>8.673118899998371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1591</v>
+      </c>
+      <c r="F3">
+        <v>98.98542500000258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>Execution time (seconds)</t>
-  </si>
-  <si>
-    <t>UCS</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -369,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,26 +389,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0.04305529999999991</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Execution time (seconds)</t>
+  </si>
+  <si>
+    <t>UCS</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +395,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1591</v>
+      </c>
+      <c r="F2">
+        <v>101.5430254999956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -409,10 +409,10 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F2">
-        <v>101.5430254999956</v>
+        <v>103.1347927000024</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>No solution.</t>
+  </si>
+  <si>
+    <t>GBFS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,14 +423,294 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>415</v>
+      </c>
+      <c r="F2">
+        <v>9.058311400003731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2077</v>
+      </c>
+      <c r="F3">
+        <v>30.32827490000636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2077</v>
+      </c>
+      <c r="F4">
+        <v>30.03712900000392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2077</v>
+      </c>
+      <c r="F5">
+        <v>31.08638579999388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2204</v>
+      </c>
+      <c r="F6">
+        <v>44.33892599999672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <v>1592</v>
       </c>
-      <c r="F2">
-        <v>103.1347927000024</v>
+      <c r="F7">
+        <v>103.5161670999951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>0.3428408000036143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>0.3388703999953577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>0.3419999000034295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>0.2412503999948967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>0.2443346999934874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>270</v>
+      </c>
+      <c r="F13">
+        <v>0.5601567999983672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <v>0.5661120000004303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>270</v>
+      </c>
+      <c r="F15">
+        <v>0.5808307999977842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>270</v>
+      </c>
+      <c r="F16">
+        <v>0.6693099999974947</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -430,7 +430,7 @@
         <v>415</v>
       </c>
       <c r="F2">
-        <v>9.058311400003731</v>
+        <v>8.752406400002656</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -450,7 +450,7 @@
         <v>2077</v>
       </c>
       <c r="F3">
-        <v>30.32827490000636</v>
+        <v>29.4774952000007</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -470,7 +470,7 @@
         <v>2077</v>
       </c>
       <c r="F4">
-        <v>30.03712900000392</v>
+        <v>30.53737960000581</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -490,7 +490,7 @@
         <v>2077</v>
       </c>
       <c r="F5">
-        <v>31.08638579999388</v>
+        <v>29.73556950000057</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -510,7 +510,7 @@
         <v>2204</v>
       </c>
       <c r="F6">
-        <v>44.33892599999672</v>
+        <v>41.88205889999517</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -530,7 +530,7 @@
         <v>1592</v>
       </c>
       <c r="F7">
-        <v>103.5161670999951</v>
+        <v>101.24874119999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -550,7 +550,7 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>0.3428408000036143</v>
+        <v>0.3221376000001328</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -570,7 +570,7 @@
         <v>90</v>
       </c>
       <c r="F9">
-        <v>0.3388703999953577</v>
+        <v>0.3238101000024471</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -590,7 +590,7 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>0.3419999000034295</v>
+        <v>0.3325799000012921</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -610,7 +610,7 @@
         <v>55</v>
       </c>
       <c r="F11">
-        <v>0.2412503999948967</v>
+        <v>0.2213543999969261</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -630,7 +630,7 @@
         <v>89</v>
       </c>
       <c r="F12">
-        <v>0.2443346999934874</v>
+        <v>0.2311410999973305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -650,7 +650,7 @@
         <v>270</v>
       </c>
       <c r="F13">
-        <v>0.5601567999983672</v>
+        <v>0.5455175999959465</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -670,7 +670,7 @@
         <v>270</v>
       </c>
       <c r="F14">
-        <v>0.5661120000004303</v>
+        <v>0.5329430000128923</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -690,7 +690,7 @@
         <v>270</v>
       </c>
       <c r="F15">
-        <v>0.5808307999977842</v>
+        <v>0.5386995000008028</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -710,7 +710,7 @@
         <v>270</v>
       </c>
       <c r="F16">
-        <v>0.6693099999974947</v>
+        <v>0.6172596999967936</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -34,19 +34,13 @@
     <t>Execution time (seconds)</t>
   </si>
   <si>
-    <t>UCS</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>GBFS</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>No solution.</t>
-  </si>
-  <si>
-    <t>GBFS</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>2</t>
@@ -387,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,10 +421,10 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>415</v>
+        <v>2077</v>
       </c>
       <c r="F2">
-        <v>8.752406400002656</v>
+        <v>21.018073917</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -438,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -450,7 +444,7 @@
         <v>2077</v>
       </c>
       <c r="F3">
-        <v>29.4774952000007</v>
+        <v>20.863061458</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -458,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -470,7 +464,7 @@
         <v>2077</v>
       </c>
       <c r="F4">
-        <v>30.53737960000581</v>
+        <v>20.78793345899999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -478,39 +472,39 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>2077</v>
+        <v>2204</v>
       </c>
       <c r="F5">
-        <v>29.73556950000057</v>
+        <v>29.3001605</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2204</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>41.88205889999517</v>
+        <v>0.2346226250000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -521,16 +515,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1592</v>
+        <v>90</v>
       </c>
       <c r="F7">
-        <v>101.24874119999</v>
+        <v>0.2354484170000006</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -538,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -550,7 +544,7 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>0.3221376000001328</v>
+        <v>0.2309491250000093</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -558,59 +552,59 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>0.3238101000024471</v>
+        <v>0.1447435829999932</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F10">
-        <v>0.3325799000012921</v>
+        <v>0.3889124170000002</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="F11">
-        <v>0.2213543999969261</v>
+        <v>0.3885614999999945</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -621,16 +615,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="F12">
-        <v>0.2311410999973305</v>
+        <v>0.3886429159999949</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -638,10 +632,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -650,67 +644,7 @@
         <v>270</v>
       </c>
       <c r="F13">
-        <v>0.5455175999959465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>270</v>
-      </c>
-      <c r="F14">
-        <v>0.5329430000128923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>270</v>
-      </c>
-      <c r="F15">
-        <v>0.5386995000008028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>270</v>
-      </c>
-      <c r="F16">
-        <v>0.6172596999967936</v>
+        <v>0.4401045420000003</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -421,10 +421,10 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2077</v>
+        <v>415</v>
       </c>
       <c r="F2">
-        <v>21.018073917</v>
+        <v>8.047252167</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -441,10 +441,10 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>2077</v>
+        <v>415</v>
       </c>
       <c r="F3">
-        <v>20.863061458</v>
+        <v>8.150677291999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -461,10 +461,10 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>2077</v>
+        <v>415</v>
       </c>
       <c r="F4">
-        <v>20.78793345899999</v>
+        <v>8.074343792000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>2204</v>
+        <v>415</v>
       </c>
       <c r="F5">
-        <v>29.3001605</v>
+        <v>7.577651416999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -501,10 +501,10 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F6">
-        <v>0.2346226250000001</v>
+        <v>0.2226627090000015</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -521,10 +521,10 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>0.2354484170000006</v>
+        <v>0.2192264999999978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -541,10 +541,10 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>0.2309491250000093</v>
+        <v>0.2180154170000037</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>0.1447435829999932</v>
+        <v>0.1339122499999945</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -581,10 +581,10 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="F10">
-        <v>0.3889124170000002</v>
+        <v>0.2230529579999967</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -601,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>0.3885614999999945</v>
+        <v>0.2224977500000023</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -621,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>0.3886429159999949</v>
+        <v>0.218167667000003</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -641,10 +641,10 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>0.4401045420000003</v>
+        <v>0.2250615419999988</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="12">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -40,9 +40,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>No solution.</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>No solution.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,14 +417,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2">
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>8.047252167</v>
+        <v>0.008930125000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -435,16 +435,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>8.150677291999999</v>
+        <v>0.009346874999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,16 +455,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>8.074343792000001</v>
+        <v>0.009314875</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -475,16 +475,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>7.577651416999998</v>
+        <v>0.320108625</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="F6">
-        <v>0.2226627090000015</v>
+        <v>0.4879457089999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -515,16 +515,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="F7">
-        <v>0.2192264999999978</v>
+        <v>0.4884094999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -535,16 +535,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="F8">
-        <v>0.2180154170000037</v>
+        <v>0.4881398749999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -555,16 +555,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>0.1339122499999945</v>
+        <v>0.1915720000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -577,14 +577,14 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="D10">
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>0.2230529579999967</v>
+        <v>0.02244408399999998</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -595,16 +595,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>0.2224977500000023</v>
+        <v>0.02242412500000013</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -615,16 +615,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>0.218167667000003</v>
+        <v>0.02285091600000033</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -635,16 +635,3776 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>0.2250615419999988</v>
+        <v>0.4547034170000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>856</v>
+      </c>
+      <c r="F14">
+        <v>23.796470542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>856</v>
+      </c>
+      <c r="F15">
+        <v>23.361574792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>856</v>
+      </c>
+      <c r="F16">
+        <v>23.40902295799999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>856</v>
+      </c>
+      <c r="F17">
+        <v>23.80032237500001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>153</v>
+      </c>
+      <c r="F18">
+        <v>0.625690750000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>153</v>
+      </c>
+      <c r="F19">
+        <v>0.627957374999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>153</v>
+      </c>
+      <c r="F20">
+        <v>0.6196466250000014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>156</v>
+      </c>
+      <c r="F21">
+        <v>1.554069374999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>0.276855917000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>0.2735964160000037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>0.2706245419999931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>163</v>
+      </c>
+      <c r="F25">
+        <v>1.977919666000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>147</v>
+      </c>
+      <c r="F26">
+        <v>0.8625328330000031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>147</v>
+      </c>
+      <c r="F27">
+        <v>0.9363642499999969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>147</v>
+      </c>
+      <c r="F28">
+        <v>0.8842924579999902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>1.340895125000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>812</v>
+      </c>
+      <c r="F30">
+        <v>24.05340299999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>812</v>
+      </c>
+      <c r="F31">
+        <v>23.90833516599997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>812</v>
+      </c>
+      <c r="F32">
+        <v>23.97880387499998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>812</v>
+      </c>
+      <c r="F33">
+        <v>24.287817166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>183</v>
+      </c>
+      <c r="F34">
+        <v>1.111035958000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>183</v>
+      </c>
+      <c r="F35">
+        <v>1.134389583000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>183</v>
+      </c>
+      <c r="F36">
+        <v>1.121222875000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>165</v>
+      </c>
+      <c r="F37">
+        <v>1.667708583000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>65</v>
+      </c>
+      <c r="F38">
+        <v>0.1221166670000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>65</v>
+      </c>
+      <c r="F39">
+        <v>0.117727957999989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>65</v>
+      </c>
+      <c r="F40">
+        <v>0.1160972499999957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>0.05829858300000978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>283</v>
+      </c>
+      <c r="F42">
+        <v>3.015346875000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>283</v>
+      </c>
+      <c r="F43">
+        <v>3.025645999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>283</v>
+      </c>
+      <c r="F44">
+        <v>3.066059499999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>655</v>
+      </c>
+      <c r="F45">
+        <v>20.23981329099999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>193</v>
+      </c>
+      <c r="F46">
+        <v>1.081767667000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>193</v>
+      </c>
+      <c r="F47">
+        <v>1.080539792000025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>193</v>
+      </c>
+      <c r="F48">
+        <v>1.081329082999986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>193</v>
+      </c>
+      <c r="F49">
+        <v>1.335538041999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>75</v>
+      </c>
+      <c r="F50">
+        <v>0.2172707499999831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <v>0.2162744999999973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>75</v>
+      </c>
+      <c r="F52">
+        <v>0.2178617079999867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>522</v>
+      </c>
+      <c r="F53">
+        <v>14.66901216599999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>3077</v>
+      </c>
+      <c r="F54">
+        <v>443.061509334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>3077</v>
+      </c>
+      <c r="F55">
+        <v>441.9466512500001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>3077</v>
+      </c>
+      <c r="F56">
+        <v>431.9158855840001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>3077</v>
+      </c>
+      <c r="F57">
+        <v>360.391106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>25</v>
+      </c>
+      <c r="F58">
+        <v>0.0244735829999172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>25</v>
+      </c>
+      <c r="F59">
+        <v>0.02421808300005068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60">
+        <v>0.02427712500002599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>1.160298582999985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>81</v>
+      </c>
+      <c r="E62">
+        <v>4957</v>
+      </c>
+      <c r="F62">
+        <v>981.593514167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>81</v>
+      </c>
+      <c r="E63">
+        <v>4957</v>
+      </c>
+      <c r="F63">
+        <v>975.667024542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>81</v>
+      </c>
+      <c r="E64">
+        <v>4957</v>
+      </c>
+      <c r="F64">
+        <v>983.87011575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>62</v>
+      </c>
+      <c r="E65">
+        <v>3815</v>
+      </c>
+      <c r="F65">
+        <v>575.4297517909999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>0.01400208400082192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0.01385266699981003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>0.013970457999676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>378</v>
+      </c>
+      <c r="F69">
+        <v>9.970385790999899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
+      <c r="E70">
+        <v>386</v>
+      </c>
+      <c r="F70">
+        <v>6.119488958000147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>386</v>
+      </c>
+      <c r="F71">
+        <v>6.155332541999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>33</v>
+      </c>
+      <c r="E72">
+        <v>386</v>
+      </c>
+      <c r="F72">
+        <v>6.070223374999841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>27</v>
+      </c>
+      <c r="E73">
+        <v>2711</v>
+      </c>
+      <c r="F73">
+        <v>374.8361454579999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>84</v>
+      </c>
+      <c r="E74">
+        <v>465</v>
+      </c>
+      <c r="F74">
+        <v>5.706898874999752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>465</v>
+      </c>
+      <c r="F75">
+        <v>5.750215583000681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>84</v>
+      </c>
+      <c r="E76">
+        <v>465</v>
+      </c>
+      <c r="F76">
+        <v>5.656914625000354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>38</v>
+      </c>
+      <c r="E77">
+        <v>360</v>
+      </c>
+      <c r="F77">
+        <v>5.620316165999611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>668</v>
+      </c>
+      <c r="F78">
+        <v>16.48955366700011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>668</v>
+      </c>
+      <c r="F79">
+        <v>16.35280041599981</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>668</v>
+      </c>
+      <c r="F80">
+        <v>16.36509925000064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81">
+        <v>668</v>
+      </c>
+      <c r="F81">
+        <v>15.35232154200003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>52</v>
+      </c>
+      <c r="E82">
+        <v>369</v>
+      </c>
+      <c r="F82">
+        <v>3.381732375000865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>52</v>
+      </c>
+      <c r="E83">
+        <v>369</v>
+      </c>
+      <c r="F83">
+        <v>3.447841333999349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>52</v>
+      </c>
+      <c r="E84">
+        <v>369</v>
+      </c>
+      <c r="F84">
+        <v>3.462324125000123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85">
+        <v>385</v>
+      </c>
+      <c r="F85">
+        <v>5.55955429200003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86">
+        <v>783</v>
+      </c>
+      <c r="F86">
+        <v>16.12556866700015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87">
+        <v>783</v>
+      </c>
+      <c r="F87">
+        <v>16.12061129199992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>783</v>
+      </c>
+      <c r="F88">
+        <v>16.1226339169998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89">
+        <v>783</v>
+      </c>
+      <c r="F89">
+        <v>18.38851983299992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>1317</v>
+      </c>
+      <c r="F90">
+        <v>70.16706004199932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>1317</v>
+      </c>
+      <c r="F91">
+        <v>70.28091133399994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>1317</v>
+      </c>
+      <c r="F92">
+        <v>70.27777400000014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93">
+        <v>1317</v>
+      </c>
+      <c r="F93">
+        <v>70.38092241699997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>52</v>
+      </c>
+      <c r="F94">
+        <v>0.09516100000018923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>52</v>
+      </c>
+      <c r="F95">
+        <v>0.09544058299979952</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>11</v>
+      </c>
+      <c r="E96">
+        <v>52</v>
+      </c>
+      <c r="F96">
+        <v>0.09988162500030739</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>81</v>
+      </c>
+      <c r="F97">
+        <v>0.4168443329999718</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
+      </c>
+      <c r="F98">
+        <v>0.01613829100006114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>0.01606004099994607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
+      </c>
+      <c r="F100">
+        <v>0.01593041599971912</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>86</v>
+      </c>
+      <c r="F101">
+        <v>0.3585317079996457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>0.01262399999995978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>0.01308716699986689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>25</v>
+      </c>
+      <c r="F104">
+        <v>0.01340574999994715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>0.01465399999960937</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>77</v>
+      </c>
+      <c r="E106">
+        <v>737</v>
+      </c>
+      <c r="F106">
+        <v>20.63328454199927</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>77</v>
+      </c>
+      <c r="E107">
+        <v>737</v>
+      </c>
+      <c r="F107">
+        <v>20.50763795900002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>77</v>
+      </c>
+      <c r="E108">
+        <v>737</v>
+      </c>
+      <c r="F108">
+        <v>20.50784479200047</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>23</v>
+      </c>
+      <c r="E109">
+        <v>595</v>
+      </c>
+      <c r="F109">
+        <v>15.67497929199999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>1551</v>
+      </c>
+      <c r="F110">
+        <v>99.03922224999951</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111">
+        <v>1551</v>
+      </c>
+      <c r="F111">
+        <v>99.12038012500034</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>1551</v>
+      </c>
+      <c r="F112">
+        <v>99.10426704200017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1551</v>
+      </c>
+      <c r="F113">
+        <v>111.9074553330001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>29</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>58</v>
+      </c>
+      <c r="E114">
+        <v>4961</v>
+      </c>
+      <c r="F114">
+        <v>1004.261168042</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>58</v>
+      </c>
+      <c r="E115">
+        <v>4961</v>
+      </c>
+      <c r="F115">
+        <v>1005.106481416999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>29</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>58</v>
+      </c>
+      <c r="E116">
+        <v>4961</v>
+      </c>
+      <c r="F116">
+        <v>1004.417944417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>29</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>2788</v>
+      </c>
+      <c r="F117">
+        <v>352.7434067499998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>94</v>
+      </c>
+      <c r="E118">
+        <v>3163</v>
+      </c>
+      <c r="F118">
+        <v>462.8066102499997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>30</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>94</v>
+      </c>
+      <c r="E119">
+        <v>3163</v>
+      </c>
+      <c r="F119">
+        <v>462.9163992920003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>30</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>94</v>
+      </c>
+      <c r="E120">
+        <v>3163</v>
+      </c>
+      <c r="F120">
+        <v>463.1193263749992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>66</v>
+      </c>
+      <c r="E121">
+        <v>2819</v>
+      </c>
+      <c r="F121">
+        <v>373.5210974169986</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>241</v>
+      </c>
+      <c r="F122">
+        <v>2.444362583000839</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>241</v>
+      </c>
+      <c r="F123">
+        <v>2.479417415999706</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>241</v>
+      </c>
+      <c r="F124">
+        <v>2.504690124998888</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>241</v>
+      </c>
+      <c r="F125">
+        <v>2.656087708000996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>32</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>21</v>
+      </c>
+      <c r="F126">
+        <v>0.01848379200055206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>32</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="E127">
+        <v>21</v>
+      </c>
+      <c r="F127">
+        <v>0.01844383400020888</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>32</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+      <c r="E128">
+        <v>21</v>
+      </c>
+      <c r="F128">
+        <v>0.01854933399954461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>32</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>94</v>
+      </c>
+      <c r="F129">
+        <v>0.6194474999992963</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>33</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>71</v>
+      </c>
+      <c r="F130">
+        <v>0.1152103750009701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>33</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>71</v>
+      </c>
+      <c r="F131">
+        <v>0.1151373339998827</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>71</v>
+      </c>
+      <c r="F132">
+        <v>0.1161095830011618</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>36</v>
+      </c>
+      <c r="F133">
+        <v>0.06782329099951312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
+      </c>
+      <c r="F134">
+        <v>0.03283416699923691</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>34</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
+      </c>
+      <c r="F135">
+        <v>0.03266004100078135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>34</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
+      </c>
+      <c r="F136">
+        <v>0.03290712499983783</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>34</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>697</v>
+      </c>
+      <c r="F137">
+        <v>33.96814920900033</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>35</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>24</v>
+      </c>
+      <c r="F138">
+        <v>0.03092149999974936</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>35</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>24</v>
+      </c>
+      <c r="F139">
+        <v>0.03070570800082351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>35</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
+      </c>
+      <c r="F140">
+        <v>0.03155120799965516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>256</v>
+      </c>
+      <c r="F141">
+        <v>5.06806399999914</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>36</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142">
+        <v>2283</v>
+      </c>
+      <c r="F142">
+        <v>209.090805666001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>36</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>2283</v>
+      </c>
+      <c r="F143">
+        <v>209.1038650829996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>36</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144">
+        <v>2283</v>
+      </c>
+      <c r="F144">
+        <v>209.1190938750005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>36</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>35</v>
+      </c>
+      <c r="E145">
+        <v>2094</v>
+      </c>
+      <c r="F145">
+        <v>158.2544708749992</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>37</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>34</v>
+      </c>
+      <c r="E146">
+        <v>619</v>
+      </c>
+      <c r="F146">
+        <v>12.51933991599981</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>34</v>
+      </c>
+      <c r="E147">
+        <v>619</v>
+      </c>
+      <c r="F147">
+        <v>12.36412120799832</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>37</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>34</v>
+      </c>
+      <c r="E148">
+        <v>619</v>
+      </c>
+      <c r="F148">
+        <v>12.50927812500049</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>27</v>
+      </c>
+      <c r="E149">
+        <v>437</v>
+      </c>
+      <c r="F149">
+        <v>6.746433250000337</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>38</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150">
+        <v>105</v>
+      </c>
+      <c r="F150">
+        <v>0.2921638330008136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>38</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151">
+        <v>105</v>
+      </c>
+      <c r="F151">
+        <v>0.2928158750000875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>38</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152">
+        <v>105</v>
+      </c>
+      <c r="F152">
+        <v>0.2927481250007986</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>38</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153">
+        <v>105</v>
+      </c>
+      <c r="F153">
+        <v>0.3398100419999537</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>20</v>
+      </c>
+      <c r="F154">
+        <v>0.01977837499907764</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>39</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>20</v>
+      </c>
+      <c r="F155">
+        <v>0.01980716700018093</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>39</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
+      </c>
+      <c r="F156">
+        <v>0.01984533299946634</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>39</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>464</v>
+      </c>
+      <c r="F157">
+        <v>13.52895337500013</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>40</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
+      </c>
+      <c r="F158">
+        <v>0.01070150000123249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>40</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>14</v>
+      </c>
+      <c r="F159">
+        <v>0.01056833300026483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>40</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
+      </c>
+      <c r="F160">
+        <v>0.01059283400172717</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>40</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>742</v>
+      </c>
+      <c r="F161">
+        <v>34.40137999999934</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>41</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>445</v>
+      </c>
+      <c r="F162">
+        <v>4.339716375001444</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>41</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163">
+        <v>445</v>
+      </c>
+      <c r="F163">
+        <v>4.431040667001071</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>41</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164">
+        <v>445</v>
+      </c>
+      <c r="F164">
+        <v>4.335702708000099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>41</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>445</v>
+      </c>
+      <c r="F165">
+        <v>4.819682833998741</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>42</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166">
+        <v>53</v>
+      </c>
+      <c r="F166">
+        <v>0.05599325000002864</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>42</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167">
+        <v>53</v>
+      </c>
+      <c r="F167">
+        <v>0.05591937500139466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>42</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168">
+        <v>53</v>
+      </c>
+      <c r="F168">
+        <v>0.05619037500036939</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>42</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <v>53</v>
+      </c>
+      <c r="F169">
+        <v>0.07715779099999054</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>43</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170">
+        <v>57</v>
+      </c>
+      <c r="F170">
+        <v>0.06488387500030512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>43</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171">
+        <v>57</v>
+      </c>
+      <c r="F171">
+        <v>0.06501466600093408</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>43</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <v>57</v>
+      </c>
+      <c r="F172">
+        <v>0.0662294159992598</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>43</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>57</v>
+      </c>
+      <c r="F173">
+        <v>0.08419545799915795</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>44</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>31</v>
+      </c>
+      <c r="E174">
+        <v>266</v>
+      </c>
+      <c r="F174">
+        <v>3.017784208999728</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>44</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>31</v>
+      </c>
+      <c r="E175">
+        <v>266</v>
+      </c>
+      <c r="F175">
+        <v>3.014056750000236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>44</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>31</v>
+      </c>
+      <c r="E176">
+        <v>266</v>
+      </c>
+      <c r="F176">
+        <v>3.016581624999162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>44</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>442</v>
+      </c>
+      <c r="F177">
+        <v>8.675323792000199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>45</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>39</v>
+      </c>
+      <c r="F178">
+        <v>0.03179662500042468</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>45</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>39</v>
+      </c>
+      <c r="F179">
+        <v>0.03183541599901218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>45</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>39</v>
+      </c>
+      <c r="F180">
+        <v>0.03189258299971698</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>45</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>33</v>
+      </c>
+      <c r="F181">
+        <v>0.03712237500076299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>46</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182">
+        <v>1224</v>
+      </c>
+      <c r="F182">
+        <v>55.58633245799865</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>46</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183">
+        <v>1224</v>
+      </c>
+      <c r="F183">
+        <v>55.78816324999934</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>46</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184">
+        <v>1224</v>
+      </c>
+      <c r="F184">
+        <v>55.80268375000014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>46</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185">
+        <v>1224</v>
+      </c>
+      <c r="F185">
+        <v>56.28642608299924</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>47</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186">
+        <v>90</v>
+      </c>
+      <c r="E186">
+        <v>1601</v>
+      </c>
+      <c r="F186">
+        <v>79.84146366700043</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>47</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187">
+        <v>1601</v>
+      </c>
+      <c r="F187">
+        <v>79.99259270899893</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>47</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>90</v>
+      </c>
+      <c r="E188">
+        <v>1601</v>
+      </c>
+      <c r="F188">
+        <v>79.75769633299933</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>47</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189">
+        <v>42</v>
+      </c>
+      <c r="E189">
+        <v>876</v>
+      </c>
+      <c r="F189">
+        <v>25.44887433300028</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>48</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190">
+        <v>5389</v>
+      </c>
+      <c r="F190">
+        <v>1313.03337225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>48</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191">
+        <v>5389</v>
+      </c>
+      <c r="F191">
+        <v>1323.062643666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>48</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192">
+        <v>5389</v>
+      </c>
+      <c r="F192">
+        <v>1387.835272875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>48</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193">
+        <v>6539</v>
+      </c>
+      <c r="F193">
+        <v>2045.613642791999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>92</v>
+      </c>
+      <c r="E194">
+        <v>1475</v>
+      </c>
+      <c r="F194">
+        <v>77.21012870800041</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>49</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195">
+        <v>92</v>
+      </c>
+      <c r="E195">
+        <v>1475</v>
+      </c>
+      <c r="F195">
+        <v>78.57231929200134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>49</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196">
+        <v>92</v>
+      </c>
+      <c r="E196">
+        <v>1475</v>
+      </c>
+      <c r="F196">
+        <v>77.80810995900174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>49</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>44</v>
+      </c>
+      <c r="E197">
+        <v>1893</v>
+      </c>
+      <c r="F197">
+        <v>130.6312409160018</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>50</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="E198">
+        <v>14</v>
+      </c>
+      <c r="F198">
+        <v>0.005882499997824198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>50</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199">
+        <v>14</v>
+      </c>
+      <c r="F199">
+        <v>0.005888042000151472</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>50</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>14</v>
+      </c>
+      <c r="F200">
+        <v>0.005887332998099737</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>50</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>0.01013904100182117</v>
       </c>
     </row>
   </sheetData>
